--- a/data/input/data_extraction_MO_checkedSD.xlsx
+++ b/data/input/data_extraction_MO_checkedSD.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meino\Documents\01-PhD\01-Paper\00 GNM Meta-Analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/GNM_Analysis/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6030EFBB-2F7F-4F8A-B83A-B2AAB685BBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9312F7-A0F1-4547-A6CC-7C618672CAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="21100" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
     <sheet name="meta-data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="141">
   <si>
     <t>group_ID</t>
   </si>
@@ -522,12 +522,15 @@
   <si>
     <t>T</t>
   </si>
+  <si>
+    <t xml:space="preserve">This is not a proxy of fitness but only the effect of GNM treatment on the GNM adding behaviour of the parents. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -639,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -650,12 +653,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,9 +673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -711,7 +713,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -817,7 +819,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -969,65 +971,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCDDD25-569C-114E-BA1C-CFE63559CC31}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="AJ30" sqref="AJ30"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20:AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="35" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="35.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="27.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1">
+    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1179,3651 +1181,3651 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="11">
-        <v>1</v>
-      </c>
-      <c r="P2" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="11">
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>2.1800000000000002</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2">
         <v>18.27</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" t="s">
         <v>115</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2">
         <v>13</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2">
         <v>11.51</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" t="s">
         <v>114</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2">
         <v>49.15</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="11" t="s">
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" t="s">
         <v>117</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" t="s">
         <v>128</v>
       </c>
-      <c r="AD2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE2" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AD2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
         <v>118</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" t="s">
         <v>139</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2">
         <v>-0.17799999999999999</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI2">
         <v>0.98199999999999998</v>
       </c>
-      <c r="AJ2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AJ2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM2" t="s">
         <v>129</v>
       </c>
-      <c r="AN2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AN2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO2" t="s">
         <v>121</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" t="s">
         <v>127</v>
       </c>
-      <c r="AQ2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AQ2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT2" t="s">
         <v>126</v>
       </c>
-      <c r="AU2" s="11" t="s">
+      <c r="AU2" t="s">
         <v>119</v>
       </c>
-      <c r="AV2" s="11" t="s">
+      <c r="AV2" t="s">
         <v>126</v>
       </c>
-      <c r="AW2" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX2" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50">
+      <c r="AW2">
+        <v>2</v>
+      </c>
+      <c r="AX2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="11">
-        <v>2</v>
-      </c>
-      <c r="O3" s="11">
-        <v>1</v>
-      </c>
-      <c r="P3" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="11">
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3">
         <v>18.27</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3">
         <v>13</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3">
         <v>19.7</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" t="s">
         <v>114</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3">
         <v>22.45</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" t="s">
         <v>115</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3">
         <v>8</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" t="s">
         <v>116</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" t="s">
         <v>117</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" t="s">
         <v>128</v>
       </c>
-      <c r="AD3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AD3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
         <v>118</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" t="s">
         <v>139</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3">
         <v>-0.60499999999999998</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3">
         <v>0.81100000000000005</v>
       </c>
-      <c r="AJ3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AJ3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM3" t="s">
         <v>129</v>
       </c>
-      <c r="AN3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AN3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO3" t="s">
         <v>121</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AP3" t="s">
         <v>127</v>
       </c>
-      <c r="AQ3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AQ3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT3" t="s">
         <v>126</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AU3" t="s">
         <v>119</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AV3" t="s">
         <v>126</v>
       </c>
-      <c r="AW3" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX3" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50">
+      <c r="AW3">
+        <v>2</v>
+      </c>
+      <c r="AX3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" t="s">
         <v>133</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N4" s="11">
-        <v>2</v>
-      </c>
-      <c r="O4" s="11">
-        <v>1</v>
-      </c>
-      <c r="P4" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="11">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>11.51</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" t="s">
         <v>114</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4">
         <v>49.15</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" t="s">
         <v>115</v>
       </c>
-      <c r="U4" s="11">
-        <v>2</v>
-      </c>
-      <c r="V4" s="11">
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>19.7</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" t="s">
         <v>114</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4">
         <v>22.45</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" t="s">
         <v>115</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4">
         <v>8</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AA4" t="s">
         <v>116</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AB4" t="s">
         <v>117</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AC4" t="s">
         <v>128</v>
       </c>
-      <c r="AD4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AD4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" t="s">
         <v>139</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4">
         <v>0.152</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4">
         <v>0.98699999999999999</v>
       </c>
-      <c r="AJ4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AJ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM4" t="s">
         <v>129</v>
       </c>
-      <c r="AN4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO4" s="11" t="s">
+      <c r="AN4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO4" t="s">
         <v>121</v>
       </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AP4" t="s">
         <v>127</v>
       </c>
-      <c r="AQ4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT4" s="11" t="s">
+      <c r="AQ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT4" t="s">
         <v>126</v>
       </c>
-      <c r="AU4" s="11" t="s">
+      <c r="AU4" t="s">
         <v>119</v>
       </c>
-      <c r="AV4" s="11" t="s">
+      <c r="AV4" t="s">
         <v>126</v>
       </c>
-      <c r="AW4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50">
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
-        <v>2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" t="s">
         <v>133</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="11">
-        <v>1</v>
-      </c>
-      <c r="P5" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="N5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>29.94</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" t="s">
         <v>114</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5">
         <v>18.09</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" t="s">
         <v>115</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5">
         <v>5</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5">
         <v>38.61</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="W5" t="s">
         <v>114</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5">
         <v>23.44</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" t="s">
         <v>115</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5">
         <v>3</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AA5" t="s">
         <v>116</v>
       </c>
-      <c r="AB5" s="11" t="s">
+      <c r="AB5" t="s">
         <v>117</v>
       </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AC5" t="s">
         <v>128</v>
       </c>
-      <c r="AD5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="11" t="s">
+      <c r="AD5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
         <v>118</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AG5" t="s">
         <v>139</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5">
         <v>-0.29299999999999998</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5">
         <v>0.95299999999999996</v>
       </c>
-      <c r="AJ5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM5" s="11" t="s">
+      <c r="AJ5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM5" t="s">
         <v>129</v>
       </c>
-      <c r="AN5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO5" s="11" t="s">
+      <c r="AN5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO5" t="s">
         <v>121</v>
       </c>
-      <c r="AP5" s="11" t="s">
+      <c r="AP5" t="s">
         <v>127</v>
       </c>
-      <c r="AQ5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AQ5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT5" t="s">
         <v>126</v>
       </c>
-      <c r="AU5" s="11" t="s">
+      <c r="AU5" t="s">
         <v>119</v>
       </c>
-      <c r="AV5" s="11" t="s">
+      <c r="AV5" t="s">
         <v>126</v>
       </c>
-      <c r="AW5" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX5" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50">
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
-        <v>2</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="11">
-        <v>2</v>
-      </c>
-      <c r="O6" s="11">
-        <v>1</v>
-      </c>
-      <c r="P6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="11">
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>29.94</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" t="s">
         <v>114</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6">
         <v>18.09</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" t="s">
         <v>115</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6">
         <v>5</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6">
         <v>35.06</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" t="s">
         <v>114</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6">
         <v>40.25</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" t="s">
         <v>115</v>
       </c>
-      <c r="Z6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="11" t="s">
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
         <v>116</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AB6" t="s">
         <v>117</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" t="s">
         <v>128</v>
       </c>
-      <c r="AD6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AD6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
         <v>118</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" t="s">
         <v>139</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6">
         <v>0.99199999999999999</v>
       </c>
-      <c r="AJ6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM6" s="11" t="s">
+      <c r="AJ6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM6" t="s">
         <v>129</v>
       </c>
-      <c r="AN6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO6" s="11" t="s">
+      <c r="AN6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO6" t="s">
         <v>121</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="AP6" t="s">
         <v>127</v>
       </c>
-      <c r="AQ6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT6" s="11" t="s">
+      <c r="AQ6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT6" t="s">
         <v>126</v>
       </c>
-      <c r="AU6" s="11" t="s">
+      <c r="AU6" t="s">
         <v>119</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="AV6" t="s">
         <v>126</v>
       </c>
-      <c r="AW6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX6" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50">
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11">
-        <v>2</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" t="s">
         <v>133</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N7" s="11">
-        <v>2</v>
-      </c>
-      <c r="O7" s="11">
-        <v>1</v>
-      </c>
-      <c r="P7" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="11">
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>38.61</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" t="s">
         <v>114</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7">
         <v>23.44</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" t="s">
         <v>115</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7">
         <v>3</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7">
         <v>35.06</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" t="s">
         <v>114</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7">
         <v>40.25</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" t="s">
         <v>115</v>
       </c>
-      <c r="Z7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="11" t="s">
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="s">
         <v>116</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" t="s">
         <v>117</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" t="s">
         <v>128</v>
       </c>
-      <c r="AD7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AD7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
         <v>118</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" t="s">
         <v>139</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7">
         <v>0.997</v>
       </c>
-      <c r="AJ7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM7" s="11" t="s">
+      <c r="AJ7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" t="s">
         <v>129</v>
       </c>
-      <c r="AN7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO7" s="11" t="s">
+      <c r="AN7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO7" t="s">
         <v>121</v>
       </c>
-      <c r="AP7" s="11" t="s">
+      <c r="AP7" t="s">
         <v>127</v>
       </c>
-      <c r="AQ7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT7" s="11" t="s">
+      <c r="AQ7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT7" t="s">
         <v>126</v>
       </c>
-      <c r="AU7" s="11" t="s">
+      <c r="AU7" t="s">
         <v>119</v>
       </c>
-      <c r="AV7" s="11" t="s">
+      <c r="AV7" t="s">
         <v>126</v>
       </c>
-      <c r="AW7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX7" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50">
+      <c r="AW7">
+        <v>2</v>
+      </c>
+      <c r="AX7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11">
-        <v>2</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" t="s">
         <v>133</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="11">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>0.95</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8">
         <v>0.76</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" t="s">
         <v>115</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8">
         <v>13</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8">
         <v>0.96</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="W8" t="s">
         <v>114</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="Y8" t="s">
         <v>115</v>
       </c>
-      <c r="Z8" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="11" t="s">
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="s">
         <v>122</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AB8" t="s">
         <v>135</v>
       </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AC8" t="s">
         <v>128</v>
       </c>
-      <c r="AD8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE8" s="11">
+      <c r="AD8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE8">
         <v>-1</v>
       </c>
-      <c r="AF8" s="11" t="s">
+      <c r="AF8" t="s">
         <v>118</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AG8" t="s">
         <v>139</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AH8">
         <v>-0.01</v>
       </c>
-      <c r="AI8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM8" s="11" t="s">
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM8" t="s">
         <v>129</v>
       </c>
-      <c r="AN8" s="11" t="s">
+      <c r="AN8" t="s">
         <v>130</v>
       </c>
-      <c r="AO8" s="11" t="s">
+      <c r="AO8" t="s">
         <v>121</v>
       </c>
-      <c r="AP8" s="11" t="s">
+      <c r="AP8" t="s">
         <v>127</v>
       </c>
-      <c r="AQ8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT8" s="11" t="s">
+      <c r="AQ8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT8" t="s">
         <v>126</v>
       </c>
-      <c r="AU8" s="11" t="s">
+      <c r="AU8" t="s">
         <v>119</v>
       </c>
-      <c r="AV8" s="11" t="s">
+      <c r="AV8" t="s">
         <v>126</v>
       </c>
-      <c r="AW8" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX8" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50">
+      <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
-        <v>2</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N9" s="11">
-        <v>2</v>
-      </c>
-      <c r="O9" s="11">
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="11">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>0.95</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9">
         <v>0.76</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" t="s">
         <v>115</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9">
         <v>13</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9">
         <v>0.96</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W9" t="s">
         <v>114</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9">
         <v>0.75</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Y9" t="s">
         <v>115</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9">
         <v>8</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="AA9" t="s">
         <v>122</v>
       </c>
-      <c r="AB9" s="11" t="s">
+      <c r="AB9" t="s">
         <v>135</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AC9" t="s">
         <v>128</v>
       </c>
-      <c r="AD9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE9" s="11">
+      <c r="AD9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE9">
         <v>-1</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AF9" t="s">
         <v>118</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" t="s">
         <v>139</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AH9">
         <v>-2E-3</v>
       </c>
-      <c r="AI9" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM9" s="11" t="s">
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM9" t="s">
         <v>129</v>
       </c>
-      <c r="AN9" s="11" t="s">
+      <c r="AN9" t="s">
         <v>130</v>
       </c>
-      <c r="AO9" s="11" t="s">
+      <c r="AO9" t="s">
         <v>121</v>
       </c>
-      <c r="AP9" s="11" t="s">
+      <c r="AP9" t="s">
         <v>127</v>
       </c>
-      <c r="AQ9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT9" s="11" t="s">
+      <c r="AQ9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT9" t="s">
         <v>126</v>
       </c>
-      <c r="AU9" s="11" t="s">
+      <c r="AU9" t="s">
         <v>119</v>
       </c>
-      <c r="AV9" s="11" t="s">
+      <c r="AV9" t="s">
         <v>126</v>
       </c>
-      <c r="AW9" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX9" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50">
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11">
-        <v>2</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" t="s">
         <v>133</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N10" s="11">
-        <v>2</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="11">
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
         <v>0.96</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" t="s">
         <v>114</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" t="s">
         <v>115</v>
       </c>
-      <c r="U10" s="11">
-        <v>2</v>
-      </c>
-      <c r="V10" s="11">
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
         <v>0.96</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" t="s">
         <v>114</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10">
         <v>0.75</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Y10" t="s">
         <v>115</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10">
         <v>8</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AA10" t="s">
         <v>122</v>
       </c>
-      <c r="AB10" s="11" t="s">
+      <c r="AB10" t="s">
         <v>135</v>
       </c>
-      <c r="AC10" s="11" t="s">
+      <c r="AC10" t="s">
         <v>128</v>
       </c>
-      <c r="AD10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE10" s="11">
+      <c r="AD10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE10">
         <v>-1</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AF10" t="s">
         <v>118</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AG10" t="s">
         <v>139</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AH10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AI10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM10" s="11" t="s">
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM10" t="s">
         <v>129</v>
       </c>
-      <c r="AN10" s="11" t="s">
+      <c r="AN10" t="s">
         <v>130</v>
       </c>
-      <c r="AO10" s="11" t="s">
+      <c r="AO10" t="s">
         <v>121</v>
       </c>
-      <c r="AP10" s="11" t="s">
+      <c r="AP10" t="s">
         <v>127</v>
       </c>
-      <c r="AQ10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT10" s="11" t="s">
+      <c r="AQ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT10" t="s">
         <v>126</v>
       </c>
-      <c r="AU10" s="11" t="s">
+      <c r="AU10" t="s">
         <v>119</v>
       </c>
-      <c r="AV10" s="11" t="s">
+      <c r="AV10" t="s">
         <v>126</v>
       </c>
-      <c r="AW10" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX10" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50">
+      <c r="AW10">
+        <v>2</v>
+      </c>
+      <c r="AX10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="11">
-        <v>2</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" t="s">
         <v>133</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="11">
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="11">
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
         <v>2.97</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" t="s">
         <v>114</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11">
         <v>2.29</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" t="s">
         <v>115</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11">
         <v>5</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11">
         <v>3.25</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="W11" t="s">
         <v>114</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11">
         <v>2.2200000000000002</v>
       </c>
-      <c r="Y11" s="11" t="s">
+      <c r="Y11" t="s">
         <v>115</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11">
         <v>3</v>
       </c>
-      <c r="AA11" s="11" t="s">
+      <c r="AA11" t="s">
         <v>122</v>
       </c>
-      <c r="AB11" s="11" t="s">
+      <c r="AB11" t="s">
         <v>135</v>
       </c>
-      <c r="AC11" s="11" t="s">
+      <c r="AC11" t="s">
         <v>128</v>
       </c>
-      <c r="AD11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE11" s="11">
+      <c r="AD11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE11">
         <v>-1</v>
       </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AF11" t="s">
         <v>118</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AG11" t="s">
         <v>139</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AH11">
         <v>-0.315</v>
       </c>
-      <c r="AI11" s="11">
+      <c r="AI11">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AJ11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM11" s="11" t="s">
+      <c r="AJ11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM11" t="s">
         <v>129</v>
       </c>
-      <c r="AN11" s="11" t="s">
+      <c r="AN11" t="s">
         <v>130</v>
       </c>
-      <c r="AO11" s="11" t="s">
+      <c r="AO11" t="s">
         <v>121</v>
       </c>
-      <c r="AP11" s="11" t="s">
+      <c r="AP11" t="s">
         <v>127</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT11" s="11" t="s">
+      <c r="AQ11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT11" t="s">
         <v>126</v>
       </c>
-      <c r="AU11" s="11" t="s">
+      <c r="AU11" t="s">
         <v>119</v>
       </c>
-      <c r="AV11" s="11" t="s">
+      <c r="AV11" t="s">
         <v>126</v>
       </c>
-      <c r="AW11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50">
+      <c r="AW11">
+        <v>2</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2</v>
-      </c>
-      <c r="J12" s="11">
-        <v>2</v>
-      </c>
-      <c r="K12" s="12" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N12" s="11">
-        <v>2</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="11">
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
         <v>2.97</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" t="s">
         <v>114</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12">
         <v>2.29</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" t="s">
         <v>115</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12">
         <v>5</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12">
         <v>3.58</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="W12" t="s">
         <v>114</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12">
         <v>2.68</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Y12" t="s">
         <v>115</v>
       </c>
-      <c r="Z12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="11" t="s">
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
         <v>122</v>
       </c>
-      <c r="AB12" s="11" t="s">
+      <c r="AB12" t="s">
         <v>135</v>
       </c>
-      <c r="AC12" s="11" t="s">
+      <c r="AC12" t="s">
         <v>128</v>
       </c>
-      <c r="AD12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE12" s="11">
+      <c r="AD12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE12">
         <v>-1</v>
       </c>
-      <c r="AF12" s="11" t="s">
+      <c r="AF12" t="s">
         <v>118</v>
       </c>
-      <c r="AG12" s="11" t="s">
+      <c r="AG12" t="s">
         <v>139</v>
       </c>
-      <c r="AH12" s="11">
+      <c r="AH12">
         <v>-0.46400000000000002</v>
       </c>
-      <c r="AI12" s="11">
+      <c r="AI12">
         <v>0.88600000000000001</v>
       </c>
-      <c r="AJ12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM12" s="11" t="s">
+      <c r="AJ12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM12" t="s">
         <v>129</v>
       </c>
-      <c r="AN12" s="11" t="s">
+      <c r="AN12" t="s">
         <v>130</v>
       </c>
-      <c r="AO12" s="11" t="s">
+      <c r="AO12" t="s">
         <v>121</v>
       </c>
-      <c r="AP12" s="11" t="s">
+      <c r="AP12" t="s">
         <v>127</v>
       </c>
-      <c r="AQ12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT12" s="11" t="s">
+      <c r="AQ12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT12" t="s">
         <v>126</v>
       </c>
-      <c r="AU12" s="11" t="s">
+      <c r="AU12" t="s">
         <v>119</v>
       </c>
-      <c r="AV12" s="11" t="s">
+      <c r="AV12" t="s">
         <v>126</v>
       </c>
-      <c r="AW12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX12" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50">
+      <c r="AW12">
+        <v>2</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11">
-        <v>2</v>
-      </c>
-      <c r="J13" s="11">
-        <v>2</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" t="s">
         <v>133</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N13" s="11">
-        <v>2</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="11">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
         <v>3.25</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" t="s">
         <v>114</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13">
         <v>2.2200000000000002</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" t="s">
         <v>115</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13">
         <v>3</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13">
         <v>3.58</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="W13" t="s">
         <v>114</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13">
         <v>2.68</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Y13" t="s">
         <v>115</v>
       </c>
-      <c r="Z13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="11" t="s">
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="s">
         <v>122</v>
       </c>
-      <c r="AB13" s="11" t="s">
+      <c r="AB13" t="s">
         <v>135</v>
       </c>
-      <c r="AC13" s="11" t="s">
+      <c r="AC13" t="s">
         <v>128</v>
       </c>
-      <c r="AD13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE13" s="11">
+      <c r="AD13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE13">
         <v>-1</v>
       </c>
-      <c r="AF13" s="11" t="s">
+      <c r="AF13" t="s">
         <v>118</v>
       </c>
-      <c r="AG13" s="11" t="s">
+      <c r="AG13" t="s">
         <v>139</v>
       </c>
-      <c r="AH13" s="11">
+      <c r="AH13">
         <v>-0.23899999999999999</v>
       </c>
-      <c r="AI13" s="11">
+      <c r="AI13">
         <v>0.96799999999999997</v>
       </c>
-      <c r="AJ13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM13" s="11" t="s">
+      <c r="AJ13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM13" t="s">
         <v>129</v>
       </c>
-      <c r="AN13" s="11" t="s">
+      <c r="AN13" t="s">
         <v>130</v>
       </c>
-      <c r="AO13" s="11" t="s">
+      <c r="AO13" t="s">
         <v>121</v>
       </c>
-      <c r="AP13" s="11" t="s">
+      <c r="AP13" t="s">
         <v>127</v>
       </c>
-      <c r="AQ13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT13" s="11" t="s">
+      <c r="AQ13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT13" t="s">
         <v>126</v>
       </c>
-      <c r="AU13" s="11" t="s">
+      <c r="AU13" t="s">
         <v>119</v>
       </c>
-      <c r="AV13" s="11" t="s">
+      <c r="AV13" t="s">
         <v>126</v>
       </c>
-      <c r="AW13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50">
+      <c r="AW13">
+        <v>2</v>
+      </c>
+      <c r="AX13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="N14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="11">
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
         <v>-0.22</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" t="s">
         <v>114</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14">
         <v>0.92</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" t="s">
         <v>115</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14">
         <v>13</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14">
         <v>-0.03</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="W14" t="s">
         <v>114</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14">
         <v>1.19</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Y14" t="s">
         <v>115</v>
       </c>
-      <c r="Z14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="11" t="s">
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14" t="s">
         <v>123</v>
       </c>
-      <c r="AB14" s="11" t="s">
+      <c r="AB14" t="s">
         <v>135</v>
       </c>
-      <c r="AC14" s="11" t="s">
+      <c r="AC14" t="s">
         <v>128</v>
       </c>
-      <c r="AD14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE14" s="11">
+      <c r="AD14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE14">
         <v>-1</v>
       </c>
-      <c r="AF14" s="11" t="s">
+      <c r="AF14" t="s">
         <v>118</v>
       </c>
-      <c r="AG14" s="11" t="s">
+      <c r="AG14" t="s">
         <v>139</v>
       </c>
-      <c r="AH14" s="11">
+      <c r="AH14">
         <v>-0.32900000000000001</v>
       </c>
-      <c r="AI14" s="11">
+      <c r="AI14">
         <v>0.94</v>
       </c>
-      <c r="AJ14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM14" s="11" t="s">
+      <c r="AJ14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM14" t="s">
         <v>129</v>
       </c>
-      <c r="AN14" s="11" t="s">
+      <c r="AN14" t="s">
         <v>131</v>
       </c>
-      <c r="AO14" s="11" t="s">
+      <c r="AO14" t="s">
         <v>121</v>
       </c>
-      <c r="AP14" s="11" t="s">
+      <c r="AP14" t="s">
         <v>127</v>
       </c>
-      <c r="AQ14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT14" s="11" t="s">
+      <c r="AQ14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT14" t="s">
         <v>126</v>
       </c>
-      <c r="AU14" s="11" t="s">
+      <c r="AU14" t="s">
         <v>119</v>
       </c>
-      <c r="AV14" s="11" t="s">
+      <c r="AV14" t="s">
         <v>126</v>
       </c>
-      <c r="AW14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX14" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50">
+      <c r="AW14">
+        <v>2</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>3</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N15" s="11">
-        <v>2</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="11">
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
         <v>-0.22</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" t="s">
         <v>114</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15">
         <v>0.92</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" t="s">
         <v>115</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15">
         <v>13</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15">
         <v>-1.8</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="W15" t="s">
         <v>114</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15">
         <v>0.97</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Y15" t="s">
         <v>115</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15">
         <v>8</v>
       </c>
-      <c r="AA15" s="11" t="s">
+      <c r="AA15" t="s">
         <v>123</v>
       </c>
-      <c r="AB15" s="11" t="s">
+      <c r="AB15" t="s">
         <v>135</v>
       </c>
-      <c r="AC15" s="11" t="s">
+      <c r="AC15" t="s">
         <v>128</v>
       </c>
-      <c r="AD15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE15" s="11">
+      <c r="AD15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE15">
         <v>-1</v>
       </c>
-      <c r="AF15" s="11" t="s">
+      <c r="AF15" t="s">
         <v>118</v>
       </c>
-      <c r="AG15" s="11" t="s">
+      <c r="AG15" t="s">
         <v>139</v>
       </c>
-      <c r="AH15" s="11">
+      <c r="AH15">
         <v>2.9929999999999999</v>
       </c>
-      <c r="AI15" s="11">
+      <c r="AI15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM15" s="11" t="s">
+      <c r="AJ15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM15" t="s">
         <v>129</v>
       </c>
-      <c r="AN15" s="11" t="s">
+      <c r="AN15" t="s">
         <v>131</v>
       </c>
-      <c r="AO15" s="11" t="s">
+      <c r="AO15" t="s">
         <v>121</v>
       </c>
-      <c r="AP15" s="11" t="s">
+      <c r="AP15" t="s">
         <v>127</v>
       </c>
-      <c r="AQ15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT15" s="11" t="s">
+      <c r="AQ15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT15" t="s">
         <v>126</v>
       </c>
-      <c r="AU15" s="11" t="s">
+      <c r="AU15" t="s">
         <v>119</v>
       </c>
-      <c r="AV15" s="11" t="s">
+      <c r="AV15" t="s">
         <v>126</v>
       </c>
-      <c r="AW15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50">
+      <c r="AW15">
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>3</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" t="s">
         <v>133</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N16" s="11">
-        <v>2</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="11">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>-0.03</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16">
         <v>1.19</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" t="s">
         <v>115</v>
       </c>
-      <c r="U16" s="11">
-        <v>2</v>
-      </c>
-      <c r="V16" s="11">
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
         <v>-1.8</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="W16" t="s">
         <v>114</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16">
         <v>0.97</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="Y16" t="s">
         <v>115</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16">
         <v>8</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AA16" t="s">
         <v>123</v>
       </c>
-      <c r="AB16" s="11" t="s">
+      <c r="AB16" t="s">
         <v>135</v>
       </c>
-      <c r="AC16" s="11" t="s">
+      <c r="AC16" t="s">
         <v>128</v>
       </c>
-      <c r="AD16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE16" s="11">
+      <c r="AD16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE16">
         <v>-1</v>
       </c>
-      <c r="AF16" s="11" t="s">
+      <c r="AF16" t="s">
         <v>118</v>
       </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AG16" t="s">
         <v>139</v>
       </c>
-      <c r="AH16" s="11">
+      <c r="AH16">
         <v>2.4049999999999998</v>
       </c>
-      <c r="AI16" s="11">
+      <c r="AI16">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AJ16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM16" s="11" t="s">
+      <c r="AJ16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM16" t="s">
         <v>129</v>
       </c>
-      <c r="AN16" s="11" t="s">
+      <c r="AN16" t="s">
         <v>131</v>
       </c>
-      <c r="AO16" s="11" t="s">
+      <c r="AO16" t="s">
         <v>121</v>
       </c>
-      <c r="AP16" s="11" t="s">
+      <c r="AP16" t="s">
         <v>127</v>
       </c>
-      <c r="AQ16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT16" s="11" t="s">
+      <c r="AQ16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT16" t="s">
         <v>126</v>
       </c>
-      <c r="AU16" s="11" t="s">
+      <c r="AU16" t="s">
         <v>119</v>
       </c>
-      <c r="AV16" s="11" t="s">
+      <c r="AV16" t="s">
         <v>126</v>
       </c>
-      <c r="AW16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX16" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50">
+      <c r="AW16">
+        <v>2</v>
+      </c>
+      <c r="AX16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="11">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11">
-        <v>2</v>
-      </c>
-      <c r="J17" s="11">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
         <v>3</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" t="s">
         <v>133</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O17" s="11">
+      <c r="N17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="11">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>0.38</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" t="s">
         <v>114</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17">
         <v>0.8</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" t="s">
         <v>115</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17">
         <v>5</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17">
         <v>-0.38</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="W17" t="s">
         <v>114</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17">
         <v>0.74</v>
       </c>
-      <c r="Y17" s="11" t="s">
+      <c r="Y17" t="s">
         <v>115</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17">
         <v>3</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AA17" t="s">
         <v>123</v>
       </c>
-      <c r="AB17" s="11" t="s">
+      <c r="AB17" t="s">
         <v>135</v>
       </c>
-      <c r="AC17" s="11" t="s">
+      <c r="AC17" t="s">
         <v>128</v>
       </c>
-      <c r="AD17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE17" s="11">
+      <c r="AD17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE17">
         <v>-1</v>
       </c>
-      <c r="AF17" s="11" t="s">
+      <c r="AF17" t="s">
         <v>118</v>
       </c>
-      <c r="AG17" s="11" t="s">
+      <c r="AG17" t="s">
         <v>139</v>
       </c>
-      <c r="AH17" s="11">
+      <c r="AH17">
         <v>2.2469999999999999</v>
       </c>
-      <c r="AI17" s="11">
+      <c r="AI17">
         <v>6.2E-2</v>
       </c>
-      <c r="AJ17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM17" s="11" t="s">
+      <c r="AJ17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM17" t="s">
         <v>129</v>
       </c>
-      <c r="AN17" s="11" t="s">
+      <c r="AN17" t="s">
         <v>131</v>
       </c>
-      <c r="AO17" s="11" t="s">
+      <c r="AO17" t="s">
         <v>121</v>
       </c>
-      <c r="AP17" s="11" t="s">
+      <c r="AP17" t="s">
         <v>127</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT17" s="11" t="s">
+      <c r="AQ17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT17" t="s">
         <v>126</v>
       </c>
-      <c r="AU17" s="11" t="s">
+      <c r="AU17" t="s">
         <v>119</v>
       </c>
-      <c r="AV17" s="11" t="s">
+      <c r="AV17" t="s">
         <v>126</v>
       </c>
-      <c r="AW17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX17" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50">
+      <c r="AW17">
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11">
-        <v>2</v>
-      </c>
-      <c r="J18" s="11">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
         <v>3</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N18" s="11">
-        <v>2</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="11">
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
         <v>0.38</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" t="s">
         <v>114</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18">
         <v>0.8</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" t="s">
         <v>115</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18">
         <v>5</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18">
         <v>0.31</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="W18" t="s">
         <v>114</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18">
         <v>0.86</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Y18" t="s">
         <v>115</v>
       </c>
-      <c r="Z18" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="11" t="s">
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
         <v>123</v>
       </c>
-      <c r="AB18" s="11" t="s">
+      <c r="AB18" t="s">
         <v>135</v>
       </c>
-      <c r="AC18" s="11" t="s">
+      <c r="AC18" t="s">
         <v>128</v>
       </c>
-      <c r="AD18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE18" s="11">
+      <c r="AD18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE18">
         <v>-1</v>
       </c>
-      <c r="AF18" s="11" t="s">
+      <c r="AF18" t="s">
         <v>118</v>
       </c>
-      <c r="AG18" s="11" t="s">
+      <c r="AG18" t="s">
         <v>139</v>
       </c>
-      <c r="AH18" s="11">
+      <c r="AH18">
         <v>0.221</v>
       </c>
-      <c r="AI18" s="11">
+      <c r="AI18">
         <v>0.97299999999999998</v>
       </c>
-      <c r="AJ18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM18" s="11" t="s">
+      <c r="AJ18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM18" t="s">
         <v>129</v>
       </c>
-      <c r="AN18" s="11" t="s">
+      <c r="AN18" t="s">
         <v>131</v>
       </c>
-      <c r="AO18" s="11" t="s">
+      <c r="AO18" t="s">
         <v>121</v>
       </c>
-      <c r="AP18" s="11" t="s">
+      <c r="AP18" t="s">
         <v>127</v>
       </c>
-      <c r="AQ18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT18" s="11" t="s">
+      <c r="AQ18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT18" t="s">
         <v>126</v>
       </c>
-      <c r="AU18" s="11" t="s">
+      <c r="AU18" t="s">
         <v>119</v>
       </c>
-      <c r="AV18" s="11" t="s">
+      <c r="AV18" t="s">
         <v>126</v>
       </c>
-      <c r="AW18" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX18" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50">
+      <c r="AW18">
+        <v>2</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="11">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11">
-        <v>2</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N19" s="11">
-        <v>2</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="11">
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
         <v>-0.38</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" t="s">
         <v>114</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19">
         <v>0.74</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" t="s">
         <v>115</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19">
         <v>3</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19">
         <v>0.31</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="W19" t="s">
         <v>114</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19">
         <v>0.86</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Y19" t="s">
         <v>115</v>
       </c>
-      <c r="Z19" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="11" t="s">
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="s">
         <v>123</v>
       </c>
-      <c r="AB19" s="11" t="s">
+      <c r="AB19" t="s">
         <v>135</v>
       </c>
-      <c r="AC19" s="11" t="s">
+      <c r="AC19" t="s">
         <v>128</v>
       </c>
-      <c r="AD19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE19" s="11">
+      <c r="AD19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE19">
         <v>-1</v>
       </c>
-      <c r="AF19" s="11" t="s">
+      <c r="AF19" t="s">
         <v>118</v>
       </c>
-      <c r="AG19" s="11" t="s">
+      <c r="AG19" t="s">
         <v>139</v>
       </c>
-      <c r="AH19" s="11">
+      <c r="AH19">
         <v>-1.6180000000000001</v>
       </c>
-      <c r="AI19" s="11">
+      <c r="AI19">
         <v>0.23300000000000001</v>
       </c>
-      <c r="AJ19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM19" s="11" t="s">
+      <c r="AJ19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM19" t="s">
         <v>129</v>
       </c>
-      <c r="AN19" s="11" t="s">
+      <c r="AN19" t="s">
         <v>131</v>
       </c>
-      <c r="AO19" s="11" t="s">
+      <c r="AO19" t="s">
         <v>121</v>
       </c>
-      <c r="AP19" s="11" t="s">
+      <c r="AP19" t="s">
         <v>127</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT19" s="11" t="s">
+      <c r="AQ19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT19" t="s">
         <v>126</v>
       </c>
-      <c r="AU19" s="11" t="s">
+      <c r="AU19" t="s">
         <v>119</v>
       </c>
-      <c r="AV19" s="11" t="s">
+      <c r="AV19" t="s">
         <v>126</v>
       </c>
-      <c r="AW19" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50">
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="11">
-        <v>1</v>
-      </c>
-      <c r="I20" s="11">
-        <v>1</v>
-      </c>
-      <c r="J20" s="11">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>4</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" t="s">
         <v>133</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20" s="11">
-        <v>1</v>
-      </c>
-      <c r="P20" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="11">
+      <c r="N20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
         <v>1.28</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" t="s">
         <v>114</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20">
         <v>0.71</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" t="s">
         <v>115</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U20">
         <v>13</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20">
         <v>0.75</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="W20" t="s">
         <v>114</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20">
         <v>1.24</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Y20" t="s">
         <v>115</v>
       </c>
-      <c r="Z20" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="11" t="s">
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="s">
         <v>124</v>
       </c>
-      <c r="AB20" s="11" t="s">
+      <c r="AB20" t="s">
         <v>125</v>
       </c>
-      <c r="AC20" s="11" t="s">
+      <c r="AC20" t="s">
         <v>138</v>
       </c>
-      <c r="AD20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE20" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="11" t="s">
+      <c r="AD20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
         <v>118</v>
       </c>
-      <c r="AG20" s="11" t="s">
+      <c r="AG20" t="s">
         <v>139</v>
       </c>
-      <c r="AH20" s="11">
+      <c r="AH20">
         <v>0.53</v>
       </c>
-      <c r="AI20" s="11">
+      <c r="AI20">
         <v>0.85099999999999998</v>
       </c>
-      <c r="AJ20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM20" s="11" t="s">
+      <c r="AJ20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM20" t="s">
         <v>129</v>
       </c>
-      <c r="AN20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO20" s="11" t="s">
+      <c r="AN20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO20" t="s">
         <v>121</v>
       </c>
-      <c r="AP20" s="11" t="s">
+      <c r="AP20" t="s">
         <v>127</v>
       </c>
-      <c r="AQ20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT20" s="11" t="s">
+      <c r="AQ20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT20" t="s">
         <v>126</v>
       </c>
-      <c r="AU20" s="11" t="s">
+      <c r="AU20" t="s">
         <v>119</v>
       </c>
-      <c r="AV20" s="11" t="s">
+      <c r="AV20" t="s">
         <v>126</v>
       </c>
-      <c r="AW20" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX20" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50">
+      <c r="AW20">
+        <v>2</v>
+      </c>
+      <c r="AX20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="I21" s="11">
-        <v>1</v>
-      </c>
-      <c r="J21" s="11">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>4</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N21" s="11">
-        <v>2</v>
-      </c>
-      <c r="O21" s="11">
-        <v>1</v>
-      </c>
-      <c r="P21" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="11">
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
         <v>1.28</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" t="s">
         <v>114</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21">
         <v>0.71</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" t="s">
         <v>115</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21">
         <v>13</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V21">
         <v>1.8</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="W21" t="s">
         <v>114</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21">
         <v>0.74</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Y21" t="s">
         <v>115</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z21">
         <v>8</v>
       </c>
-      <c r="AA21" s="11" t="s">
+      <c r="AA21" t="s">
         <v>124</v>
       </c>
-      <c r="AB21" s="11" t="s">
+      <c r="AB21" t="s">
         <v>125</v>
       </c>
-      <c r="AC21" s="11" t="s">
+      <c r="AC21" t="s">
         <v>138</v>
       </c>
-      <c r="AD21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="11" t="s">
+      <c r="AD21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="s">
         <v>118</v>
       </c>
-      <c r="AG21" s="11" t="s">
+      <c r="AG21" t="s">
         <v>139</v>
       </c>
-      <c r="AH21" s="11">
+      <c r="AH21">
         <v>-0.96399999999999997</v>
       </c>
-      <c r="AI21" s="11">
+      <c r="AI21">
         <v>0.58799999999999997</v>
       </c>
-      <c r="AJ21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM21" s="11" t="s">
+      <c r="AJ21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM21" t="s">
         <v>129</v>
       </c>
-      <c r="AN21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO21" s="11" t="s">
+      <c r="AN21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO21" t="s">
         <v>121</v>
       </c>
-      <c r="AP21" s="11" t="s">
+      <c r="AP21" t="s">
         <v>127</v>
       </c>
-      <c r="AQ21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT21" s="11" t="s">
+      <c r="AQ21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT21" t="s">
         <v>126</v>
       </c>
-      <c r="AU21" s="11" t="s">
+      <c r="AU21" t="s">
         <v>119</v>
       </c>
-      <c r="AV21" s="11" t="s">
+      <c r="AV21" t="s">
         <v>126</v>
       </c>
-      <c r="AW21" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX21" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50">
+      <c r="AW21">
+        <v>2</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="11">
-        <v>1</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>4</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="11">
-        <v>2</v>
-      </c>
-      <c r="O22" s="11">
-        <v>1</v>
-      </c>
-      <c r="P22" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="11">
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <v>0.75</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" t="s">
         <v>114</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22">
         <v>1.24</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" t="s">
         <v>115</v>
       </c>
-      <c r="U22" s="11">
-        <v>2</v>
-      </c>
-      <c r="V22" s="11">
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.8</v>
       </c>
-      <c r="W22" s="11" t="s">
+      <c r="W22" t="s">
         <v>114</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X22">
         <v>0.74</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Y22" t="s">
         <v>115</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z22">
         <v>8</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="AA22" t="s">
         <v>124</v>
       </c>
-      <c r="AB22" s="11" t="s">
+      <c r="AB22" t="s">
         <v>125</v>
       </c>
-      <c r="AC22" s="11" t="s">
+      <c r="AC22" t="s">
         <v>138</v>
       </c>
-      <c r="AD22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE22" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="11" t="s">
+      <c r="AD22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="s">
         <v>118</v>
       </c>
-      <c r="AG22" s="11" t="s">
+      <c r="AG22" t="s">
         <v>139</v>
       </c>
-      <c r="AH22" s="11">
+      <c r="AH22">
         <v>-1.0069999999999999</v>
       </c>
-      <c r="AI22" s="11">
+      <c r="AI22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AJ22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM22" s="11" t="s">
+      <c r="AJ22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM22" t="s">
         <v>129</v>
       </c>
-      <c r="AN22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO22" s="11" t="s">
+      <c r="AN22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO22" t="s">
         <v>121</v>
       </c>
-      <c r="AP22" s="11" t="s">
+      <c r="AP22" t="s">
         <v>127</v>
       </c>
-      <c r="AQ22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT22" s="11" t="s">
+      <c r="AQ22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT22" t="s">
         <v>126</v>
       </c>
-      <c r="AU22" s="11" t="s">
+      <c r="AU22" t="s">
         <v>119</v>
       </c>
-      <c r="AV22" s="11" t="s">
+      <c r="AV22" t="s">
         <v>126</v>
       </c>
-      <c r="AW22" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX22" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:50">
+      <c r="AW22">
+        <v>2</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="11">
-        <v>2</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
         <v>4</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" t="s">
         <v>133</v>
       </c>
-      <c r="N23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" s="11">
-        <v>1</v>
-      </c>
-      <c r="P23" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="11">
+      <c r="N23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
         <v>0.82</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" t="s">
         <v>114</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23">
         <v>1.49</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" t="s">
         <v>115</v>
       </c>
-      <c r="U23" s="11">
+      <c r="U23">
         <v>5</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23">
         <v>0.1</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="W23" t="s">
         <v>114</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X23">
         <v>0.05</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Y23" t="s">
         <v>115</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z23">
         <v>3</v>
       </c>
-      <c r="AA23" s="11" t="s">
+      <c r="AA23" t="s">
         <v>124</v>
       </c>
-      <c r="AB23" s="11" t="s">
+      <c r="AB23" t="s">
         <v>125</v>
       </c>
-      <c r="AC23" s="11" t="s">
+      <c r="AC23" t="s">
         <v>138</v>
       </c>
-      <c r="AD23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE23" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="11" t="s">
+      <c r="AD23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
         <v>118</v>
       </c>
-      <c r="AG23" s="11" t="s">
+      <c r="AG23" t="s">
         <v>139</v>
       </c>
-      <c r="AH23" s="11">
+      <c r="AH23">
         <v>0.82599999999999996</v>
       </c>
-      <c r="AI23" s="11">
+      <c r="AI23">
         <v>0.65100000000000002</v>
       </c>
-      <c r="AJ23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM23" s="11" t="s">
+      <c r="AJ23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM23" t="s">
         <v>129</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO23" s="11" t="s">
+      <c r="AN23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO23" t="s">
         <v>121</v>
       </c>
-      <c r="AP23" s="11" t="s">
+      <c r="AP23" t="s">
         <v>127</v>
       </c>
-      <c r="AQ23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT23" s="11" t="s">
+      <c r="AQ23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT23" t="s">
         <v>126</v>
       </c>
-      <c r="AU23" s="11" t="s">
+      <c r="AU23" t="s">
         <v>119</v>
       </c>
-      <c r="AV23" s="11" t="s">
+      <c r="AV23" t="s">
         <v>126</v>
       </c>
-      <c r="AW23" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX23" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50">
+      <c r="AW23">
+        <v>2</v>
+      </c>
+      <c r="AX23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="I24" s="11">
-        <v>2</v>
-      </c>
-      <c r="J24" s="11">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N24" s="11">
-        <v>2</v>
-      </c>
-      <c r="O24" s="11">
-        <v>1</v>
-      </c>
-      <c r="P24" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="11">
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
         <v>0.82</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" t="s">
         <v>114</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24">
         <v>1.49</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" t="s">
         <v>115</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24">
         <v>5</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24">
         <v>-16.96</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="W24" t="s">
         <v>114</v>
       </c>
-      <c r="X24" s="11">
+      <c r="X24">
         <v>1448.15</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Y24" t="s">
         <v>115</v>
       </c>
-      <c r="Z24" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="11" t="s">
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
         <v>124</v>
       </c>
-      <c r="AB24" s="11" t="s">
+      <c r="AB24" t="s">
         <v>125</v>
       </c>
-      <c r="AC24" s="11" t="s">
+      <c r="AC24" t="s">
         <v>138</v>
       </c>
-      <c r="AD24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE24" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="11" t="s">
+      <c r="AD24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
         <v>118</v>
       </c>
-      <c r="AG24" s="11" t="s">
+      <c r="AG24" t="s">
         <v>139</v>
       </c>
-      <c r="AH24" s="11">
+      <c r="AH24">
         <v>1.2E-2</v>
       </c>
-      <c r="AI24" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM24" s="11" t="s">
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM24" t="s">
         <v>129</v>
       </c>
-      <c r="AN24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO24" s="11" t="s">
+      <c r="AN24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO24" t="s">
         <v>121</v>
       </c>
-      <c r="AP24" s="11" t="s">
+      <c r="AP24" t="s">
         <v>127</v>
       </c>
-      <c r="AQ24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT24" s="11" t="s">
+      <c r="AQ24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT24" t="s">
         <v>126</v>
       </c>
-      <c r="AU24" s="11" t="s">
+      <c r="AU24" t="s">
         <v>119</v>
       </c>
-      <c r="AV24" s="11" t="s">
+      <c r="AV24" t="s">
         <v>126</v>
       </c>
-      <c r="AW24" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX24" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50">
+      <c r="AW24">
+        <v>2</v>
+      </c>
+      <c r="AX24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-      <c r="I25" s="11">
-        <v>2</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
         <v>4</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" t="s">
         <v>133</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N25" s="11">
-        <v>2</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="11">
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
         <v>0.1</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" t="s">
         <v>114</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25">
         <v>0.05</v>
       </c>
-      <c r="T25" s="11" t="s">
+      <c r="T25" t="s">
         <v>115</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25">
         <v>3</v>
       </c>
-      <c r="V25" s="11">
+      <c r="V25">
         <v>-16.96</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X25">
         <v>1448.15</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Y25" t="s">
         <v>115</v>
       </c>
-      <c r="Z25" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="11" t="s">
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="s">
         <v>124</v>
       </c>
-      <c r="AB25" s="11" t="s">
+      <c r="AB25" t="s">
         <v>125</v>
       </c>
-      <c r="AC25" s="11" t="s">
+      <c r="AC25" t="s">
         <v>138</v>
       </c>
-      <c r="AD25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="11" t="s">
+      <c r="AD25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="s">
         <v>118</v>
       </c>
-      <c r="AG25" s="11" t="s">
+      <c r="AG25" t="s">
         <v>139</v>
       </c>
-      <c r="AH25" s="11">
+      <c r="AH25">
         <v>1.2E-2</v>
       </c>
-      <c r="AI25" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM25" s="11" t="s">
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM25" t="s">
         <v>129</v>
       </c>
-      <c r="AN25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO25" s="11" t="s">
+      <c r="AN25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO25" t="s">
         <v>121</v>
       </c>
-      <c r="AP25" s="11" t="s">
+      <c r="AP25" t="s">
         <v>127</v>
       </c>
-      <c r="AQ25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT25" s="11" t="s">
+      <c r="AQ25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT25" t="s">
         <v>126</v>
       </c>
-      <c r="AU25" s="11" t="s">
+      <c r="AU25" t="s">
         <v>119</v>
       </c>
-      <c r="AV25" s="11" t="s">
+      <c r="AV25" t="s">
         <v>126</v>
       </c>
-      <c r="AW25" s="11">
-        <v>2</v>
-      </c>
-      <c r="AX25" s="11">
+      <c r="AW25">
+        <v>2</v>
+      </c>
+      <c r="AX25">
         <v>2</v>
       </c>
     </row>
@@ -4840,13 +4842,13 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.796875" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
     <col min="2" max="2" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4871,7 +4873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18">
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -4879,7 +4881,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -4887,7 +4889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -4898,7 +4900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -4909,7 +4911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18">
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -4917,7 +4919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18">
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4925,7 +4927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18">
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4933,7 +4935,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18">
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18">
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -4952,7 +4954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18">
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4960,7 +4962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18">
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18">
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18">
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -4984,7 +4986,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18">
+    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18">
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18">
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -5016,7 +5018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18">
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -5024,7 +5026,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18">
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18">
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -5040,7 +5042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18">
+    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -5048,7 +5050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18">
+    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18">
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -5064,7 +5066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18">
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18">
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -5080,7 +5082,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18">
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -5088,7 +5090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18">
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18">
+    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -5104,7 +5106,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18">
+    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18">
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -5120,7 +5122,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18">
+    <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18">
+    <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -5136,7 +5138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18">
+    <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -5144,7 +5146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18">
+    <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18">
+    <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18">
+    <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18">
+    <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -5176,7 +5178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18">
+    <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -5184,7 +5186,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18">
+    <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -5192,7 +5194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18">
+    <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
@@ -5200,7 +5202,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18">
+    <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -5208,7 +5210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18">
+    <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -5216,7 +5218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18">
+    <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
@@ -5224,7 +5226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18">
+    <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>78</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18">
+    <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -5241,7 +5243,7 @@
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3" ht="18">
+    <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18">
+    <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
